--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1696.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1696.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6006916014401384</v>
+        <v>0.5225439071655273</v>
       </c>
       <c r="B1">
+        <v>1.522161960601807</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="C1">
-        <v>2.625871583087428</v>
-      </c>
       <c r="D1">
-        <v>1.829638967760145</v>
+        <v>1.470676183700562</v>
       </c>
       <c r="E1">
-        <v>1.550991578892384</v>
+        <v>1.417742848396301</v>
       </c>
     </row>
   </sheetData>
